--- a/entwurf/protokoll.xlsx
+++ b/entwurf/protokoll.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28719"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Informatik\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Informatik\Workspace\Projekt\repository\EKittenServer\entwurf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D6E753-2E24-40BE-AA12-0FBB3FB46D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,18 +69,6 @@
     <t>HOST &lt;Code&gt;</t>
   </si>
   <si>
-    <t>-OK Game starts
--ERR Not logged in
--ERR Not in a game
--ERR Not the host
--ERR Already started
--ERR Not enough player</t>
-  </si>
-  <si>
-    <t>START
-# Starte eine gehostetes Spiel</t>
-  </si>
-  <si>
     <t>-OK Joined the game
 -ERR Not logged in
 -ERR Already in a game
@@ -128,10 +115,6 @@
 -ERR No bomb in hand</t>
   </si>
   <si>
-    <t>DEFUSE &lt;Stelle&gt;
-# Antworte auf eine Explosionskarte mit einer Entschärfungskarte und lege fest an welcher Stelle die Explosionskarte zurück in den Stapel gelegt werden soll (Defuse Karten Effekt)</t>
-  </si>
-  <si>
     <t>BOMB &lt;Username&gt;
 # Signalisiert, dass der Spieler mit eine Bombe erhalten hat (Exploding Kitten Karten Effekt, an alle)</t>
   </si>
@@ -170,13 +153,26 @@
   <si>
     <t>PLAYER &lt;Usernames&gt;
 # Aktualisiert die Spieler im Spiel</t>
+  </si>
+  <si>
+    <t>DEFUSE &lt;Index in Prozent: 0 - 100&gt;
+# Antworte auf eine Explosionskarte mit einer Entschärfungskarte und lege fest an welcher Stelle die Explosionskarte zurück in den Stapel gelegt werden soll (Defuse Karten Effekt)</t>
+  </si>
+  <si>
+    <t>PILE
+# Gibt die Anzahl an Karten auf dem Stapel zurück</t>
+  </si>
+  <si>
+    <t>-OK Pile count
+-ERR Not logged in
+-ERR Not in a game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,15 +356,51 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -376,42 +408,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -693,240 +689,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="108" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="63" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="51" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -934,7 +928,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -944,21 +938,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A18:C18"/>
@@ -967,23 +961,23 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
